--- a/Spankulator-Hardware/bom/Digi-Key/Spankulator.xlsx
+++ b/Spankulator-Hardware/bom/Digi-Key/Spankulator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\spankulator\Spankulator-Hardware\bom\Digi-Key\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{66448595-BD3D-46FD-8659-83A308B11FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73DD75-8FA5-45E2-8C96-7FCB2AE5D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spankulator" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <t>Reference</t>
   </si>
@@ -61,49 +61,40 @@
     <t>478-12960-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C14 </t>
+    <t xml:space="preserve">C16 </t>
+  </si>
+  <si>
+    <t>270p</t>
+  </si>
+  <si>
+    <t>490-7362-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3 C4 </t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>1189-3982-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 C20 </t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>399-9877-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8 C10 C14 </t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>445-180204-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16 </t>
-  </si>
-  <si>
-    <t>270p</t>
-  </si>
-  <si>
-    <t>490-7362-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3 C4 </t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>1189-3982-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 C20 </t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>399-9877-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8 C10 </t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>445-180638-1-ND</t>
+    <t>399-9886-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">D1 D2 D7 D8 D9 D15 D16 D19 D20 </t>
@@ -292,10 +283,10 @@
     <t xml:space="preserve">Q3 Q5 Q7 Q8 </t>
   </si>
   <si>
-    <t>TN2106</t>
-  </si>
-  <si>
-    <t>TN2106N3-G-ND</t>
+    <t>2N7000TA</t>
+  </si>
+  <si>
+    <t>2N7000TACT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">R1 R11 </t>
@@ -319,10 +310,10 @@
     <t xml:space="preserve">R17 </t>
   </si>
   <si>
-    <t>324K 1%</t>
-  </si>
-  <si>
-    <t>324KXBK-ND</t>
+    <t>316K 1%</t>
+  </si>
+  <si>
+    <t>316KXBK-ND</t>
   </si>
   <si>
     <t xml:space="preserve">R18 </t>
@@ -340,7 +331,7 @@
     <t>PPC470W-1CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 R3 R4 R6 R8 R14 R15 R21 </t>
+    <t xml:space="preserve">R2 R3 R4 R5 R6 R8 R14 R15 R21 </t>
   </si>
   <si>
     <t>1K</t>
@@ -376,9 +367,6 @@
     <t>RNF14FTD95K3CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">R7 R12 R24 R26 R27 R31 </t>
   </si>
   <si>
@@ -403,7 +391,16 @@
     <t>PTV09A-4225F-B102-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">RV2 RV3 </t>
+    <t xml:space="preserve">RV2 </t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>490-2881-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV3 </t>
   </si>
   <si>
     <t>490-2875-ND</t>
@@ -470,6 +467,15 @@
   </si>
   <si>
     <t>732-13055-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO8 SO9 SO10 SO11 SO12 </t>
+  </si>
+  <si>
+    <t>LED_Standoff</t>
+  </si>
+  <si>
+    <t>732-11607-ND</t>
   </si>
   <si>
     <t xml:space="preserve">SW1 </t>
@@ -556,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1390,19 +1396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1494,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1508,7 +1511,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1522,7 +1525,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1536,7 +1539,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1592,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -1606,7 +1609,7 @@
         <v>43</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1620,7 +1623,7 @@
         <v>46</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -1648,7 +1651,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -1662,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -1696,21 +1699,21 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,18 +1782,18 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1799,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>84</v>
@@ -1813,7 +1816,7 @@
         <v>86</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
@@ -1827,7 +1830,7 @@
         <v>89</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>90</v>
@@ -1855,7 +1858,7 @@
         <v>95</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -1883,24 +1886,24 @@
         <v>101</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>470</v>
+      </c>
+      <c r="D35" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>470</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -1911,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>107</v>
@@ -1925,7 +1928,7 @@
         <v>109</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>110</v>
@@ -1953,7 +1956,7 @@
         <v>115</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>116</v>
@@ -1967,293 +1970,293 @@
         <v>118</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
